--- a/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:26:13+00:00</t>
+    <t>2024-12-18T08:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -773,7 +773,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-certainty}
+    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.2.0}
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-duration}
+    <t xml:space="preserve">Extension {allergyintolerance-duration|5.2.0}
 </t>
   </si>
   <si>
@@ -946,7 +946,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-location}
+    <t xml:space="preserve">Extension {openEHR-location|5.2.0}
 </t>
   </si>
   <si>
@@ -962,7 +962,7 @@
     <t>exposureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDate}
+    <t xml:space="preserve">Extension {openEHR-exposureDate|5.2.0}
 </t>
   </si>
   <si>
@@ -981,7 +981,7 @@
     <t>exposureDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDuration}
+    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.2.0}
 </t>
   </si>
   <si>
@@ -997,7 +997,7 @@
     <t>exposureDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDescription}
+    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.2.0}
 </t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>management</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-management}
+    <t xml:space="preserve">Extension {openEHR-management|5.2.0}
 </t>
   </si>
   <si>
@@ -1486,17 +1486,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="200.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="212.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1505,25 +1505,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.39453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.6328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-allergyintolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T08:10:43+00:00</t>
+    <t>2025-12-16T12:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -709,7 +709,7 @@
     <t>AllergyIntolerance.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.2.0}
+    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -921,6 +921,10 @@
     <t>When certainty is missing, it means no information exists (although it could be in narrative).  By contrast, the unknown code is used when there is an explicit assertion that certainty is not known, such as when a patient eats a meal and it is unknown which food caused the reaction.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>uncertaintyCode</t>
   </si>
   <si>
@@ -930,7 +934,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-duration|5.2.0}
+    <t xml:space="preserve">Extension {allergyintolerance-duration|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -946,7 +950,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-location|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-location|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -962,7 +966,7 @@
     <t>exposureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDate|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDate|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -981,7 +985,7 @@
     <t>exposureDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -997,7 +1001,7 @@
     <t>exposureDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1013,7 +1017,7 @@
     <t>management</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-management|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-management|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1147,7 +1151,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
@@ -4722,13 +4726,13 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
@@ -4739,13 +4743,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>81</v>
@@ -4767,13 +4771,13 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4833,7 +4837,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>139</v>
@@ -4850,13 +4854,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
@@ -4878,13 +4882,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4944,7 +4948,7 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>139</v>
@@ -4961,13 +4965,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
@@ -4989,16 +4993,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5057,7 +5061,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>139</v>
@@ -5074,13 +5078,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
@@ -5102,13 +5106,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5168,7 +5172,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>139</v>
@@ -5185,13 +5189,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>81</v>
@@ -5213,13 +5217,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5279,7 +5283,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>139</v>
@@ -5296,13 +5300,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>273</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>81</v>
@@ -5324,13 +5328,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5390,7 +5394,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>139</v>
@@ -5407,14 +5411,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5436,10 +5440,10 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>137</v>
@@ -5494,7 +5498,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5520,10 +5524,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5549,13 +5553,13 @@
         <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5585,7 +5589,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5603,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5618,7 +5622,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -5629,14 +5633,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5658,13 +5662,13 @@
         <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5694,7 +5698,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -5712,7 +5716,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -5733,19 +5737,19 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5767,13 +5771,13 @@
         <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5823,7 +5827,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5838,7 +5842,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -5849,10 +5853,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5878,10 +5882,10 @@
         <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5932,7 +5936,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -5953,15 +5957,15 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5987,13 +5991,13 @@
         <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6022,10 +6026,10 @@
         <v>159</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6043,7 +6047,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6069,10 +6073,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6098,13 +6102,13 @@
         <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6130,13 +6134,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6154,7 +6158,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6169,7 +6173,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6180,10 +6184,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6209,13 +6213,13 @@
         <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6265,7 +6269,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
